--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY FILES\JAVA\Automation_Sviatkin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY FILES\JAVA\GitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDB566F-056F-4DCC-B123-173999B922FF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053CCE04-5313-4081-807A-035E6641D59F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E33"/>
+  <dimension ref="B2:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,9 +846,14 @@
         <v>43239</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <v>43240</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>124124124214</v>
       </c>
     </row>
   </sheetData>
